--- a/测试用例表 - 示例.xlsx
+++ b/测试用例表 - 示例.xlsx
@@ -4,36 +4,40 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12480" activeTab="1"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="入口&amp;用户" sheetId="2" r:id="rId1"/>
+    <sheet name="组织" sheetId="3" r:id="rId2"/>
+    <sheet name="项目" sheetId="4" r:id="rId3"/>
+    <sheet name="项目设置" sheetId="10" r:id="rId4"/>
+    <sheet name="事项" sheetId="5" r:id="rId5"/>
+    <sheet name="冲刺" sheetId="6" r:id="rId6"/>
+    <sheet name="甘特图" sheetId="7" r:id="rId7"/>
+    <sheet name="看板" sheetId="8" r:id="rId8"/>
+    <sheet name="事项分解" sheetId="9" r:id="rId9"/>
+    <sheet name="管理" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
-  <si>
-    <t>测试用例编号</t>
-  </si>
-  <si>
-    <t>测试用例标题</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>标题</t>
   </si>
   <si>
     <t>预置条件</t>
   </si>
   <si>
-    <t>步骤名称</t>
-  </si>
-  <si>
-    <t>步骤描述</t>
-  </si>
-  <si>
-    <t>预期输出</t>
+    <t>步骤和预期</t>
   </si>
   <si>
     <t>实际输出</t>
@@ -48,75 +52,7 @@
     <t>执行结果(Y/N)</t>
   </si>
   <si>
-    <t>CBYJ-001</t>
-  </si>
-  <si>
-    <t>预警管理</t>
-  </si>
-  <si>
-    <t>进入系统-预警管理页面</t>
-  </si>
-  <si>
-    <t>航线名称自动</t>
-  </si>
-  <si>
-    <t>1、打开页面后记录航线名称
-2、记录航线名称，再次打开预警管理页面
-3、再次记录航线名称</t>
-  </si>
-  <si>
-    <t>每次航线名称不同</t>
-  </si>
-  <si>
-    <t>提示距离</t>
-  </si>
-  <si>
-    <t>提示距离过小或过大或空</t>
-  </si>
-  <si>
-    <t>1、打开页面后，提示距离输入10或很大的数或空
-2、点击开启预警按钮</t>
-  </si>
-  <si>
-    <t>应提示 提示距离过小或过大或空是否重新输入</t>
-  </si>
-  <si>
-    <t>预警距离</t>
-  </si>
-  <si>
-    <t>预警距离过小或过大</t>
-  </si>
-  <si>
-    <t>1、打开页面后，预警距离输入10或很大的数或空
-2、点击开启预警按钮</t>
-  </si>
-  <si>
-    <t>应提示 预警距离过小或过大或空是否重新输入</t>
-  </si>
-  <si>
-    <t>提示距离小于预警距离</t>
-  </si>
-  <si>
-    <t>1、打开页面后，预警距离输入1000、123，提示距离输入10、9
-2、点击开启预警按钮</t>
-  </si>
-  <si>
-    <t>应提示 预警距离小于提示距离</t>
-  </si>
-  <si>
-    <t>模块</t>
-  </si>
-  <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>标题</t>
-  </si>
-  <si>
-    <t>步骤</t>
-  </si>
-  <si>
-    <t>是</t>
+    <t>入口</t>
   </si>
   <si>
     <t>#PASSPORT-1</t>
@@ -128,10 +64,175 @@
     <t>1.未登录</t>
   </si>
   <si>
-    <t xml:space="preserve">1.访问域名根目录 </t>
-  </si>
-  <si>
     <t>1.出现登录界面 2.检查用户名和密码输入框，出现登录按钮</t>
+  </si>
+  <si>
+    <t>#PASSPORT-2</t>
+  </si>
+  <si>
+    <t>注册</t>
+  </si>
+  <si>
+    <t>1.点击注册面板                                      2.输入“显示名称”，“邮箱”，“用户名”，“密码”     3.点击注册                                                4.出现注册成功提示                                        5.输入刚才的用户名和密码可以登录</t>
+  </si>
+  <si>
+    <t>#PASSPORT-3</t>
+  </si>
+  <si>
+    <t>找回密码</t>
+  </si>
+  <si>
+    <t>1.点击“找回密码”链接                                      2.输入刚才注册“邮箱”                               3.点击提交                                          4.出现提交成功提示                                        5.数据库查找验证码，组装出链接地址，然后访问             6.访问链接，然后重置密码                                 7.使用新密码登录，检查是否登录成功</t>
+  </si>
+  <si>
+    <t>#PASSPORT-4</t>
+  </si>
+  <si>
+    <t>记住密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.输入账号密码                                      2.勾选记住面膜                                       3.点击提交                                          4.出现提交成功提示                                        5.关闭浏览器，访问主页                               6.检查是否自动登录成功                                 </t>
+  </si>
+  <si>
+    <t>首页</t>
+  </si>
+  <si>
+    <t>#INDEX-1</t>
+  </si>
+  <si>
+    <t>1.输入账号密码                                      2.点击登录                                          3.是否成功进入主页                                   4.检查“参与项目”，“未解决事项”，“关注事项”是否有数据                                                 5.检查“顶部未解决事项”的数量                                     6.检查小工具是否可用                                    7.检查布局是否可用</t>
+  </si>
+  <si>
+    <t>#INDEX-2</t>
+  </si>
+  <si>
+    <t>搜索</t>
+  </si>
+  <si>
+    <t>1.登录</t>
+  </si>
+  <si>
+    <t>1.进入首页 2.在顶部栏搜索框输入关键字                3.按回车键后等待查询结果是否符合要求                   4.点击查询结果的链接，判断是否可访问</t>
+  </si>
+  <si>
+    <t>用户</t>
+  </si>
+  <si>
+    <t>#USER-1</t>
+  </si>
+  <si>
+    <t>个人资料页（活动日志）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.进入首页                                          2.在顶部栏用户头像点击                               3.点击用户资料                                       4.打开页面后，为活动日志页面                               5.判断活动日志页面的数据是否存在                        </t>
+  </si>
+  <si>
+    <t>#USER-2</t>
+  </si>
+  <si>
+    <t>参与的项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.继续 #USER-1                                          2.点击“参与的项目”链接                               3.检查项目数据是否存在                                       4.检查项目链接是否正确，点击进去是否正确                               </t>
+  </si>
+  <si>
+    <t>#USER-3</t>
+  </si>
+  <si>
+    <t>#USER-4</t>
+  </si>
+  <si>
+    <t>关注的事项</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.继续 #USER-1                                          2.点击“关注的事项”链接                               3.检查事项是否存在                                       4.检查事项链接是否正确，点击进去是否正确                               </t>
+  </si>
+  <si>
+    <t>#USER-5</t>
+  </si>
+  <si>
+    <t>系统消息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.继续 #USER-1                                          2.点击“系统消息”链接                               3.检查消息是否存在                                       4.检查未读消息点击后是否付出弹出层                          5.点击后，看未读数量是否减少1                               </t>
+  </si>
+  <si>
+    <t>#USER-6</t>
+  </si>
+  <si>
+    <t>资料编辑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.继续 #USER-1                                          2.点击右上角的编辑链接，是否可以进入编辑资料页面                               3.检查用户头像，显示名称和出生日期                                       4.修改用户头像，显示名称，出生日期，性别，签名                          5.点击后，刷新页面，看数据是否修改成功                               </t>
+  </si>
+  <si>
+    <t>#USER-7</t>
+  </si>
+  <si>
+    <t>自定义面板</t>
+  </si>
+  <si>
+    <t>1.进入首页                                          2.在顶部栏用户头像点击                               3.点击“用户设置”                                       4.点击“自定义面板”                                5.删除小工具，添加小工具，配置小工具，然后刷新页面看是否小工具数据显示出来                                                                6.点击版式布局，修改其他布局，刷新页面看是否切换成功</t>
+  </si>
+  <si>
+    <t>1.进入首页                                          2.在顶部栏用户头像点击                               3.点击“用户设置”                                       4.点击“自定义面板”                                5.删除小工具，添加小工具，配置小工具，然后刷新页面看是否小工具数据显示出来                                                                6.点击版式布局，修改其他布局，刷新页面看是否切换成功      7.访问首页，查看布局和小工具是否一致</t>
+  </si>
+  <si>
+    <t>#USER-8</t>
+  </si>
+  <si>
+    <t>界面设置</t>
+  </si>
+  <si>
+    <t>1.进入首页                                          2.在顶部栏用户头像点击                               3.点击“用户设置”                                       4.点击“界面设置”                                  5.分别修改“导航风格”，“页面布局”，“项目首页显示”，“事项显示”选项                                                                6.点击保存后刷新检查是否成功                         7.检查导航风格是否变化，页面布局是否变化</t>
+  </si>
+  <si>
+    <t>#USER-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.进入首页                                          2.在顶部栏用户头像点击                               3.点击“用户设置”                                       4.点击“自定义过滤器”                                  5.检查过滤器是否存在，检查过滤器链接，检查过滤器是否可以删除                                                </t>
+  </si>
+  <si>
+    <t>#USER-10</t>
+  </si>
+  <si>
+    <t>修改密码</t>
+  </si>
+  <si>
+    <t>1.进入首页                                          2.在顶部栏用户头像点击                               3.点击“用户设置”                                       4.点击“修改密码”链接                                  5.修改密码，检查是否保存成功，退出登录，检查是否可以登录</t>
+  </si>
+  <si>
+    <t>组织</t>
+  </si>
+  <si>
+    <t>#ORG-1</t>
+  </si>
+  <si>
+    <t>组织列表页</t>
+  </si>
+  <si>
+    <t>1.检查是否出现默认组织数据                    2.点击组织详情，查看组织详情的项目列表数据是否可用，点击访问是否正常</t>
+  </si>
+  <si>
+    <t>#ORG-2</t>
+  </si>
+  <si>
+    <t>组织新增</t>
+  </si>
+  <si>
+    <t>1.访问组织列表页                            2.点击“新增”按钮                            3.输入组织数据，点击保存，检查是否成功    4.访问组织列表页，检查是否出现刚才新增的组织</t>
+  </si>
+  <si>
+    <t>#ORG-3</t>
+  </si>
+  <si>
+    <t>组织编辑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.访问组织列表页                            2.点击刚才创建的组织的“编辑”链接                            3.修改组织数据，点击保存，检查是否成功    </t>
+  </si>
+  <si>
+    <t>#ORG-4</t>
   </si>
 </sst>
 </file>
@@ -144,7 +245,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,109 +262,94 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -320,12 +406,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -538,29 +630,21 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -664,191 +748,179 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1198,161 +1270,354 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="23.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="53.375" customWidth="1"/>
+    <col min="6" max="6" width="28.25" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="44" customHeight="1" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="115" customHeight="1" spans="1:5">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="115" customHeight="1" spans="1:5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="115" customHeight="1" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="100" customHeight="1" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="100" customHeight="1" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="100" customHeight="1" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="100" customHeight="1" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="100" customHeight="1" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="100" customHeight="1" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="100" customHeight="1" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="100" customHeight="1" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="126" customHeight="1" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="126" customHeight="1" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="126" customHeight="1" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="126" customHeight="1" spans="1:5">
+      <c r="A18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
-  <cols>
-    <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.66666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29" style="8" customWidth="1"/>
-    <col min="7" max="7" width="32.8333333333333" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="27" spans="1:11">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" ht="54" spans="1:11">
-      <c r="A2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9">
-        <v>2</v>
-      </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" ht="40.5" spans="1:11">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" ht="40.5" spans="1:11">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" ht="40.5" spans="1:11">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="3:3">
-      <c r="C6" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C2:C5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1360,79 +1625,130 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="34.25" customWidth="1"/>
-    <col min="7" max="7" width="28.25" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="39.5" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="44" customHeight="1" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="77" customHeight="1" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" ht="64" customHeight="1"/>
-    <row r="4" ht="20" customHeight="1"/>
+        <v>62</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="131" customHeight="1" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="131" customHeight="1" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="131" customHeight="1" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="115" customHeight="1" spans="1:5">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1448,9 +1764,105 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>